--- a/F-2_配布資料/04_DB定義書_F2.xlsx
+++ b/F-2_配布資料/04_DB定義書_F2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo7\F-2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE21B3B-8F0A-461F-8C61-3F37C2DF8F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD8C304-80A2-40B3-98D5-AE4793026452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="585" windowWidth="17130" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="60">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1945,7 +1945,9 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
